--- a/Model/Model/bin/Debug/netcoreapp3.1/my-files/PathesDataBase.xlsx
+++ b/Model/Model/bin/Debug/netcoreapp3.1/my-files/PathesDataBase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\פרוייקט\c#\proj\ConsoleApp1\ConsoleApp1\bin\Debug\my-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\פרוייקט\GIT פרוייקט עם\ResumeApp_Model\Model\Model\bin\Debug\netcoreapp3.1\my-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="166">
-  <si>
-    <t>אבי.doc</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="165">
   <si>
     <t>Architecture</t>
   </si>
@@ -840,25 +837,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K160"/>
+  <dimension ref="B1:K159"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -866,7 +863,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -874,7 +871,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -882,7 +879,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -890,7 +887,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -898,7 +895,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -906,7 +903,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -914,7 +911,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -922,7 +919,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -930,7 +927,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -938,7 +935,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -946,15 +943,15 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
         <v>160</v>
@@ -962,7 +959,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
         <v>161</v>
@@ -970,7 +967,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>162</v>
@@ -978,7 +975,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>163</v>
@@ -986,7 +983,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
         <v>164</v>
@@ -994,10 +991,10 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
@@ -1005,12 +1002,12 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
@@ -1018,7 +1015,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
@@ -1026,7 +1023,7 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
@@ -1034,7 +1031,7 @@
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -1042,7 +1039,7 @@
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
@@ -1050,7 +1047,7 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
@@ -1058,7 +1055,7 @@
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>26</v>
@@ -1066,7 +1063,7 @@
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -1074,7 +1071,7 @@
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -1082,23 +1079,23 @@
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>30</v>
@@ -1106,7 +1103,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
@@ -1114,7 +1111,7 @@
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
@@ -1122,7 +1119,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
         <v>33</v>
@@ -1130,7 +1127,7 @@
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" t="s">
         <v>34</v>
@@ -1138,7 +1135,7 @@
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
         <v>35</v>
@@ -1146,7 +1143,7 @@
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
         <v>36</v>
@@ -1154,7 +1151,7 @@
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
@@ -1162,7 +1159,7 @@
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
         <v>38</v>
@@ -1170,15 +1167,15 @@
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
         <v>39</v>
@@ -1186,7 +1183,7 @@
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
         <v>40</v>
@@ -1194,7 +1191,7 @@
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
         <v>41</v>
@@ -1202,7 +1199,7 @@
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
         <v>42</v>
@@ -1210,7 +1207,7 @@
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
         <v>43</v>
@@ -1218,7 +1215,7 @@
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
         <v>44</v>
@@ -1226,7 +1223,7 @@
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
         <v>45</v>
@@ -1234,7 +1231,7 @@
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
         <v>46</v>
@@ -1242,7 +1239,7 @@
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
         <v>47</v>
@@ -1250,7 +1247,7 @@
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
         <v>48</v>
@@ -1258,7 +1255,7 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" t="s">
         <v>49</v>
@@ -1274,7 +1271,7 @@
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
         <v>51</v>
@@ -1282,7 +1279,7 @@
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
         <v>52</v>
@@ -1290,7 +1287,7 @@
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" t="s">
         <v>53</v>
@@ -1298,7 +1295,7 @@
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
         <v>54</v>
@@ -1306,7 +1303,7 @@
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" t="s">
         <v>55</v>
@@ -1314,7 +1311,7 @@
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" t="s">
         <v>56</v>
@@ -1322,7 +1319,7 @@
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" t="s">
         <v>57</v>
@@ -1330,7 +1327,7 @@
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" t="s">
         <v>58</v>
@@ -1338,7 +1335,7 @@
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
         <v>59</v>
@@ -1346,7 +1343,7 @@
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" t="s">
         <v>60</v>
@@ -1354,7 +1351,7 @@
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
         <v>61</v>
@@ -1362,7 +1359,7 @@
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
         <v>62</v>
@@ -1370,26 +1367,26 @@
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" t="s">
         <v>63</v>
       </c>
+      <c r="K66" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
         <v>64</v>
       </c>
-      <c r="K67" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68" t="s">
         <v>65</v>
@@ -1397,7 +1394,7 @@
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" t="s">
         <v>66</v>
@@ -1405,7 +1402,7 @@
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70" t="s">
         <v>67</v>
@@ -1413,7 +1410,7 @@
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71" t="s">
         <v>68</v>
@@ -1421,7 +1418,7 @@
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72" t="s">
         <v>69</v>
@@ -1429,7 +1426,7 @@
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73" t="s">
         <v>70</v>
@@ -1437,7 +1434,7 @@
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74" t="s">
         <v>71</v>
@@ -1445,7 +1442,7 @@
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
         <v>72</v>
@@ -1453,7 +1450,7 @@
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76" t="s">
         <v>73</v>
@@ -1461,26 +1458,26 @@
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.2">
@@ -1493,7 +1490,7 @@
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C81" t="s">
         <v>78</v>
@@ -1501,7 +1498,7 @@
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C82" t="s">
         <v>79</v>
@@ -1509,7 +1506,7 @@
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C83" t="s">
         <v>80</v>
@@ -1517,7 +1514,7 @@
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C84" t="s">
         <v>81</v>
@@ -1525,7 +1522,7 @@
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C85" t="s">
         <v>82</v>
@@ -1533,7 +1530,7 @@
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C86" t="s">
         <v>83</v>
@@ -1541,7 +1538,7 @@
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C87" t="s">
         <v>84</v>
@@ -1549,7 +1546,7 @@
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C88" t="s">
         <v>85</v>
@@ -1557,39 +1554,39 @@
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="C91" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" t="s">
         <v>88</v>
-      </c>
-      <c r="C92" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C93" t="s">
         <v>89</v>
@@ -1597,7 +1594,7 @@
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C94" t="s">
         <v>90</v>
@@ -1605,7 +1602,7 @@
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C95" t="s">
         <v>91</v>
@@ -1613,7 +1610,7 @@
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C96" t="s">
         <v>92</v>
@@ -1621,15 +1618,15 @@
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C97" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C98" t="s">
         <v>158</v>
@@ -1637,15 +1634,15 @@
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C99" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="C100" t="s">
         <v>94</v>
@@ -1653,7 +1650,7 @@
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C101" t="s">
         <v>95</v>
@@ -1661,7 +1658,7 @@
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C102" t="s">
         <v>96</v>
@@ -1669,7 +1666,7 @@
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C103" t="s">
         <v>97</v>
@@ -1677,7 +1674,7 @@
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C104" t="s">
         <v>98</v>
@@ -1685,7 +1682,7 @@
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C105" t="s">
         <v>99</v>
@@ -1693,7 +1690,7 @@
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C106" t="s">
         <v>100</v>
@@ -1701,7 +1698,7 @@
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C107" t="s">
         <v>101</v>
@@ -1709,7 +1706,7 @@
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C108" t="s">
         <v>102</v>
@@ -1717,7 +1714,7 @@
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C109" t="s">
         <v>103</v>
@@ -1725,7 +1722,7 @@
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C110" t="s">
         <v>104</v>
@@ -1733,7 +1730,7 @@
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C111" t="s">
         <v>105</v>
@@ -1741,7 +1738,7 @@
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C112" t="s">
         <v>106</v>
@@ -1749,7 +1746,7 @@
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C113" t="s">
         <v>107</v>
@@ -1757,7 +1754,7 @@
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C114" t="s">
         <v>108</v>
@@ -1765,7 +1762,7 @@
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C115" t="s">
         <v>109</v>
@@ -1773,7 +1770,7 @@
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C116" t="s">
         <v>110</v>
@@ -1781,7 +1778,7 @@
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C117" t="s">
         <v>111</v>
@@ -1789,7 +1786,7 @@
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C118" t="s">
         <v>112</v>
@@ -1797,7 +1794,7 @@
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C119" t="s">
         <v>113</v>
@@ -1805,7 +1802,7 @@
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C120" t="s">
         <v>114</v>
@@ -1813,7 +1810,7 @@
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C121" t="s">
         <v>115</v>
@@ -1821,7 +1818,7 @@
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C122" t="s">
         <v>116</v>
@@ -1829,7 +1826,7 @@
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C123" t="s">
         <v>117</v>
@@ -1837,7 +1834,7 @@
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C124" t="s">
         <v>118</v>
@@ -1845,7 +1842,7 @@
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C125" t="s">
         <v>119</v>
@@ -1853,31 +1850,31 @@
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C129" t="s">
         <v>123</v>
@@ -1885,7 +1882,7 @@
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C130" t="s">
         <v>124</v>
@@ -1893,7 +1890,7 @@
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C131" t="s">
         <v>125</v>
@@ -1901,7 +1898,7 @@
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C132" t="s">
         <v>126</v>
@@ -1909,7 +1906,7 @@
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C133" t="s">
         <v>127</v>
@@ -1917,7 +1914,7 @@
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C134" t="s">
         <v>128</v>
@@ -1925,7 +1922,7 @@
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C135" t="s">
         <v>129</v>
@@ -1933,7 +1930,7 @@
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C136" t="s">
         <v>130</v>
@@ -1941,7 +1938,7 @@
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C137" t="s">
         <v>131</v>
@@ -1949,7 +1946,7 @@
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C138" t="s">
         <v>132</v>
@@ -1957,7 +1954,7 @@
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C139" t="s">
         <v>133</v>
@@ -1965,7 +1962,7 @@
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C140" t="s">
         <v>134</v>
@@ -1973,7 +1970,7 @@
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C141" t="s">
         <v>135</v>
@@ -1981,7 +1978,7 @@
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C142" t="s">
         <v>136</v>
@@ -1989,7 +1986,7 @@
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C143" t="s">
         <v>137</v>
@@ -1997,7 +1994,7 @@
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C144" t="s">
         <v>138</v>
@@ -2005,7 +2002,7 @@
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C145" t="s">
         <v>139</v>
@@ -2013,7 +2010,7 @@
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C146" t="s">
         <v>140</v>
@@ -2021,7 +2018,7 @@
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C147" t="s">
         <v>141</v>
@@ -2029,7 +2026,7 @@
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C148" t="s">
         <v>142</v>
@@ -2037,7 +2034,7 @@
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C149" t="s">
         <v>143</v>
@@ -2045,7 +2042,7 @@
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C150" t="s">
         <v>144</v>
@@ -2053,7 +2050,7 @@
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C151" t="s">
         <v>145</v>
@@ -2061,7 +2058,7 @@
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C152" t="s">
         <v>146</v>
@@ -2069,7 +2066,7 @@
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C153" t="s">
         <v>147</v>
@@ -2077,7 +2074,7 @@
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C154" t="s">
         <v>148</v>
@@ -2085,7 +2082,7 @@
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C155" t="s">
         <v>149</v>
@@ -2093,7 +2090,7 @@
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C156" t="s">
         <v>150</v>
@@ -2101,7 +2098,7 @@
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C157" t="s">
         <v>151</v>
@@ -2109,7 +2106,7 @@
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C158" t="s">
         <v>152</v>
@@ -2117,18 +2114,10 @@
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C159" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C160" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
